--- a/biology/Botanique/Ottaviano_Targioni_Tozzetti/Ottaviano_Targioni_Tozzetti.xlsx
+++ b/biology/Botanique/Ottaviano_Targioni_Tozzetti/Ottaviano_Targioni_Tozzetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ottaviano Targioni Tozzetti (né en 1755 à Florence et mort en 1826[1] à Pise) était un médecin et un botaniste italien de la fin du XVIIIe et du début du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ottaviano Targioni Tozzetti (né en 1755 à Florence et mort en 1826 à Pise) était un médecin et un botaniste italien de la fin du XVIIIe et du début du XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ottaviano Targioni Tozzetti est le fils du botaniste Giovanni Targioni Tozzetti (1712-1783). Il est médecin à l’hôpital de Santa Maria Nuova de Florence et  enseigne la botanique à l'université de Pise.
 Il est l’auteur d’Istituzioni botaniche (1802) et du Dizionario botanico italiano (1809).
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) Istituto e Museo di Storia della Scienza</t>
         </is>
